--- a/DPMMVCCore/DPM_Testing/wwwroot/DPM/src/assets/PumpExcel_Format.xlsx
+++ b/DPMMVCCore/DPM_Testing/wwwroot/DPM/src/assets/PumpExcel_Format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivani\Desktop\DPM\13-3-2021\DPMCore\DPMMVCCore\DPM_Testing\wwwroot\DPM\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC336706-9B6C-45B7-9DD2-F5E2698ABFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F5EF84-26FA-4C8F-9791-7B404A2BA7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EAB51831-3CEE-42FB-9566-4267BA6CEB44}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>PS</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>InsertedDate</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -397,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A991C4F-06C3-4E63-BDED-87BC0D9F7517}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,6 +431,12 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
